--- a/Semester 5 2020/Manajemen Proyek Perangkat Lunak/Tugas/UTS Praktek Ridho Surya(1710031802135).xlsx
+++ b/Semester 5 2020/Manajemen Proyek Perangkat Lunak/Tugas/UTS Praktek Ridho Surya(1710031802135).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t xml:space="preserve">Perusahaan Retail Riau</t>
   </si>
@@ -236,6 +236,30 @@
   </si>
   <si>
     <t xml:space="preserve">Kegiatan Mendahului</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Survei Lapangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTIRAHAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potong Kain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obras Kain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memulai Jahit Baju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bordir Baju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasang Kancing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setrika Pakaian dan Pengemasan</t>
   </si>
 </sst>
 </file>
@@ -246,11 +270,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\-MMM"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -268,64 +293,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -431,74 +403,33 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFCE181E"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFCE181E"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFF2DCDB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFCE181E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFF2DCDB"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -509,7 +440,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2DCDB"/>
-        <bgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -527,7 +458,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -536,28 +467,25 @@
         <bgColor rgb="FFF2DCDB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FFED1C24"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066B3"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -669,8 +597,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -694,46 +650,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -745,131 +688,143 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,95 +832,106 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -973,26 +939,26 @@
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FFED1C24"/>
-      <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFEEEEEE"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF0066B3"/>
+      <rgbColor rgb="FFF2DCDB"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1004,7 +970,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFF2DCDB"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1035,10 +1001,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:AQ56"/>
+  <dimension ref="B4:AQ69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A51" colorId="64" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V74" activeCellId="0" sqref="V74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1980,19 +1946,19 @@
       <c r="U45" s="33" t="n">
         <v>24</v>
       </c>
-      <c r="V45" s="36" t="n">
+      <c r="V45" s="35" t="n">
         <v>25</v>
       </c>
-      <c r="W45" s="37" t="n">
+      <c r="W45" s="33" t="n">
         <v>26</v>
       </c>
-      <c r="X45" s="37" t="n">
+      <c r="X45" s="33" t="n">
         <v>27</v>
       </c>
       <c r="Y45" s="33" t="n">
         <v>28</v>
       </c>
-      <c r="Z45" s="37" t="n">
+      <c r="Z45" s="33" t="n">
         <v>29</v>
       </c>
       <c r="AA45" s="33" t="n">
@@ -2037,607 +2003,985 @@
       <c r="AN45" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="AO45" s="38" t="n">
+      <c r="AO45" s="36" t="n">
         <v>13</v>
       </c>
-      <c r="AP45" s="39"/>
+      <c r="AP45" s="37"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="40" t="n">
+      <c r="B46" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="43" t="s">
+      <c r="E46" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="43" t="n">
+      <c r="F46" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="G46" s="44"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="47"/>
-      <c r="P46" s="46"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="46"/>
-      <c r="S46" s="46"/>
-      <c r="T46" s="46"/>
-      <c r="U46" s="46"/>
-      <c r="V46" s="47"/>
-      <c r="W46" s="46"/>
-      <c r="X46" s="46"/>
-      <c r="Y46" s="46"/>
-      <c r="Z46" s="46"/>
-      <c r="AA46" s="46"/>
-      <c r="AB46" s="46"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="46"/>
-      <c r="AE46" s="46"/>
-      <c r="AF46" s="46"/>
-      <c r="AG46" s="46"/>
-      <c r="AH46" s="46"/>
-      <c r="AI46" s="46"/>
-      <c r="AJ46" s="46"/>
-      <c r="AK46" s="46"/>
-      <c r="AL46" s="46"/>
-      <c r="AM46" s="46"/>
-      <c r="AN46" s="46"/>
-      <c r="AO46" s="49"/>
-      <c r="AP46" s="50"/>
-      <c r="AQ46" s="50"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="44"/>
+      <c r="L46" s="44"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="44"/>
+      <c r="O46" s="45"/>
+      <c r="P46" s="44"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="44"/>
+      <c r="S46" s="44"/>
+      <c r="T46" s="44"/>
+      <c r="U46" s="44"/>
+      <c r="V46" s="45"/>
+      <c r="W46" s="44"/>
+      <c r="X46" s="44"/>
+      <c r="Y46" s="44"/>
+      <c r="Z46" s="44"/>
+      <c r="AA46" s="44"/>
+      <c r="AB46" s="44"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="44"/>
+      <c r="AE46" s="44"/>
+      <c r="AF46" s="44"/>
+      <c r="AG46" s="44"/>
+      <c r="AH46" s="44"/>
+      <c r="AI46" s="44"/>
+      <c r="AJ46" s="44"/>
+      <c r="AK46" s="44"/>
+      <c r="AL46" s="44"/>
+      <c r="AM46" s="44"/>
+      <c r="AN46" s="44"/>
+      <c r="AO46" s="47"/>
+      <c r="AP46" s="48"/>
+      <c r="AQ46" s="48"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="40" t="n">
+      <c r="B47" s="38" t="n">
         <v>2</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="43" t="s">
+      <c r="E47" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F47" s="43" t="n">
+      <c r="F47" s="41" t="n">
         <v>4</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="45"/>
-      <c r="L47" s="45"/>
-      <c r="M47" s="45"/>
-      <c r="N47" s="45"/>
-      <c r="O47" s="47"/>
-      <c r="P47" s="46"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="46"/>
-      <c r="S47" s="46"/>
-      <c r="T47" s="46"/>
-      <c r="U47" s="46"/>
-      <c r="V47" s="47"/>
-      <c r="W47" s="46"/>
-      <c r="X47" s="46"/>
-      <c r="Y47" s="46"/>
-      <c r="Z47" s="46"/>
-      <c r="AA47" s="46"/>
-      <c r="AB47" s="46"/>
-      <c r="AC47" s="48"/>
-      <c r="AD47" s="46"/>
-      <c r="AE47" s="46"/>
-      <c r="AF47" s="46"/>
-      <c r="AG47" s="46"/>
-      <c r="AH47" s="46"/>
-      <c r="AI47" s="46"/>
-      <c r="AJ47" s="46"/>
-      <c r="AK47" s="46"/>
-      <c r="AL47" s="46"/>
-      <c r="AM47" s="46"/>
-      <c r="AN47" s="46"/>
-      <c r="AO47" s="49"/>
-      <c r="AP47" s="52"/>
-      <c r="AQ47" s="52"/>
+      <c r="G47" s="49"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="45"/>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="44"/>
+      <c r="T47" s="44"/>
+      <c r="U47" s="44"/>
+      <c r="V47" s="45"/>
+      <c r="W47" s="44"/>
+      <c r="X47" s="44"/>
+      <c r="Y47" s="44"/>
+      <c r="Z47" s="44"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="44"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="44"/>
+      <c r="AE47" s="44"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="44"/>
+      <c r="AH47" s="44"/>
+      <c r="AI47" s="44"/>
+      <c r="AJ47" s="44"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="44"/>
+      <c r="AM47" s="44"/>
+      <c r="AN47" s="44"/>
+      <c r="AO47" s="47"/>
+      <c r="AP47" s="50"/>
+      <c r="AQ47" s="50"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="40" t="n">
+      <c r="B48" s="38" t="n">
         <v>3</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F48" s="43" t="n">
+      <c r="F48" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="46"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="46"/>
-      <c r="K48" s="45"/>
-      <c r="L48" s="45"/>
-      <c r="M48" s="45"/>
-      <c r="N48" s="45"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="45"/>
-      <c r="Q48" s="45"/>
-      <c r="R48" s="46"/>
-      <c r="S48" s="46"/>
-      <c r="T48" s="46"/>
-      <c r="U48" s="46"/>
-      <c r="V48" s="47"/>
-      <c r="W48" s="46"/>
-      <c r="X48" s="46"/>
-      <c r="Y48" s="46"/>
-      <c r="Z48" s="46"/>
-      <c r="AA48" s="46"/>
-      <c r="AB48" s="46"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="46"/>
-      <c r="AE48" s="46"/>
-      <c r="AF48" s="46"/>
-      <c r="AG48" s="46"/>
-      <c r="AH48" s="46"/>
-      <c r="AI48" s="46"/>
-      <c r="AJ48" s="46"/>
-      <c r="AK48" s="46"/>
-      <c r="AL48" s="46"/>
-      <c r="AM48" s="46"/>
-      <c r="AN48" s="46"/>
-      <c r="AO48" s="49"/>
-      <c r="AP48" s="52"/>
-      <c r="AQ48" s="52"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="45"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="44"/>
+      <c r="T48" s="44"/>
+      <c r="U48" s="44"/>
+      <c r="V48" s="45"/>
+      <c r="W48" s="44"/>
+      <c r="X48" s="44"/>
+      <c r="Y48" s="44"/>
+      <c r="Z48" s="44"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="44"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="44"/>
+      <c r="AE48" s="44"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="44"/>
+      <c r="AH48" s="44"/>
+      <c r="AI48" s="44"/>
+      <c r="AJ48" s="44"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="44"/>
+      <c r="AM48" s="44"/>
+      <c r="AN48" s="44"/>
+      <c r="AO48" s="47"/>
+      <c r="AP48" s="50"/>
+      <c r="AQ48" s="50"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="40" t="n">
+      <c r="B49" s="38" t="n">
         <v>4</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F49" s="43" t="n">
+      <c r="F49" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="46"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="45"/>
-      <c r="N49" s="45"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="45"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="47"/>
-      <c r="W49" s="46"/>
-      <c r="X49" s="46"/>
-      <c r="Y49" s="46"/>
-      <c r="Z49" s="46"/>
-      <c r="AA49" s="46"/>
-      <c r="AB49" s="46"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="46"/>
-      <c r="AE49" s="46"/>
-      <c r="AF49" s="46"/>
-      <c r="AG49" s="46"/>
-      <c r="AH49" s="46"/>
-      <c r="AI49" s="46"/>
-      <c r="AJ49" s="46"/>
-      <c r="AK49" s="46"/>
-      <c r="AL49" s="46"/>
-      <c r="AM49" s="46"/>
-      <c r="AN49" s="46"/>
-      <c r="AO49" s="49"/>
-      <c r="AP49" s="52"/>
-      <c r="AQ49" s="52"/>
+      <c r="G49" s="49"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="45"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="45"/>
+      <c r="W49" s="44"/>
+      <c r="X49" s="44"/>
+      <c r="Y49" s="44"/>
+      <c r="Z49" s="44"/>
+      <c r="AA49" s="44"/>
+      <c r="AB49" s="44"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="44"/>
+      <c r="AE49" s="44"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="44"/>
+      <c r="AH49" s="44"/>
+      <c r="AI49" s="44"/>
+      <c r="AJ49" s="44"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="44"/>
+      <c r="AM49" s="44"/>
+      <c r="AN49" s="44"/>
+      <c r="AO49" s="47"/>
+      <c r="AP49" s="50"/>
+      <c r="AQ49" s="50"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="40" t="n">
+      <c r="B50" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="42" t="s">
+      <c r="D50" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="43" t="n">
+      <c r="F50" s="41" t="n">
         <v>6</v>
       </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="46"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="46"/>
-      <c r="K50" s="46"/>
-      <c r="L50" s="46"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45"/>
-      <c r="U50" s="45"/>
-      <c r="V50" s="47"/>
-      <c r="W50" s="46"/>
-      <c r="X50" s="46"/>
-      <c r="Y50" s="46"/>
-      <c r="Z50" s="46"/>
-      <c r="AA50" s="46"/>
-      <c r="AB50" s="46"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="46"/>
-      <c r="AE50" s="46"/>
-      <c r="AF50" s="46"/>
-      <c r="AG50" s="46"/>
-      <c r="AH50" s="46"/>
-      <c r="AI50" s="46"/>
-      <c r="AJ50" s="46"/>
-      <c r="AK50" s="46"/>
-      <c r="AL50" s="46"/>
-      <c r="AM50" s="46"/>
-      <c r="AN50" s="46"/>
-      <c r="AO50" s="49"/>
-      <c r="AP50" s="52"/>
-      <c r="AQ50" s="52"/>
+      <c r="G50" s="49"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="45"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="44"/>
+      <c r="X50" s="44"/>
+      <c r="Y50" s="44"/>
+      <c r="Z50" s="44"/>
+      <c r="AA50" s="44"/>
+      <c r="AB50" s="44"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="44"/>
+      <c r="AE50" s="44"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="44"/>
+      <c r="AH50" s="44"/>
+      <c r="AI50" s="44"/>
+      <c r="AJ50" s="44"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="44"/>
+      <c r="AM50" s="44"/>
+      <c r="AN50" s="44"/>
+      <c r="AO50" s="47"/>
+      <c r="AP50" s="50"/>
+      <c r="AQ50" s="50"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="40" t="n">
+      <c r="B51" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="C51" s="41" t="s">
+      <c r="C51" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="42" t="s">
+      <c r="D51" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="43" t="n">
+      <c r="F51" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="46"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="46"/>
-      <c r="K51" s="46"/>
-      <c r="L51" s="46"/>
-      <c r="M51" s="46"/>
-      <c r="N51" s="46"/>
-      <c r="O51" s="47"/>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45"/>
-      <c r="U51" s="45"/>
-      <c r="V51" s="47"/>
-      <c r="W51" s="45"/>
-      <c r="X51" s="46"/>
-      <c r="Y51" s="46"/>
-      <c r="Z51" s="46"/>
-      <c r="AA51" s="46"/>
-      <c r="AB51" s="46"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="46"/>
-      <c r="AF51" s="46"/>
-      <c r="AG51" s="46"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="46"/>
-      <c r="AK51" s="46"/>
-      <c r="AL51" s="46"/>
-      <c r="AM51" s="46"/>
-      <c r="AN51" s="46"/>
-      <c r="AO51" s="49"/>
-      <c r="AP51" s="52"/>
-      <c r="AQ51" s="52"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="45"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="43"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="44"/>
+      <c r="Y51" s="44"/>
+      <c r="Z51" s="44"/>
+      <c r="AA51" s="44"/>
+      <c r="AB51" s="44"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="44"/>
+      <c r="AE51" s="44"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="44"/>
+      <c r="AH51" s="44"/>
+      <c r="AI51" s="44"/>
+      <c r="AJ51" s="44"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="44"/>
+      <c r="AM51" s="44"/>
+      <c r="AN51" s="44"/>
+      <c r="AO51" s="47"/>
+      <c r="AP51" s="50"/>
+      <c r="AQ51" s="50"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="40" t="n">
+      <c r="B52" s="38" t="n">
         <v>7</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="42" t="s">
+      <c r="D52" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="43" t="n">
+      <c r="F52" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45"/>
-      <c r="U52" s="45"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="45"/>
-      <c r="X52" s="53"/>
-      <c r="Y52" s="53"/>
-      <c r="Z52" s="53"/>
-      <c r="AA52" s="53"/>
-      <c r="AB52" s="53"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="53"/>
-      <c r="AE52" s="53"/>
-      <c r="AF52" s="53"/>
-      <c r="AG52" s="53"/>
-      <c r="AH52" s="53"/>
-      <c r="AI52" s="53"/>
-      <c r="AJ52" s="53"/>
-      <c r="AK52" s="53"/>
-      <c r="AL52" s="46"/>
-      <c r="AM52" s="46"/>
-      <c r="AN52" s="46"/>
-      <c r="AO52" s="49"/>
-      <c r="AP52" s="52"/>
-      <c r="AQ52" s="52"/>
+      <c r="G52" s="49"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="44"/>
+      <c r="AM52" s="44"/>
+      <c r="AN52" s="44"/>
+      <c r="AO52" s="47"/>
+      <c r="AP52" s="50"/>
+      <c r="AQ52" s="50"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="40" t="n">
+      <c r="B53" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="43" t="n">
+      <c r="F53" s="41" t="n">
         <v>7</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
-      <c r="T53" s="45"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="45"/>
-      <c r="X53" s="53"/>
-      <c r="Y53" s="53"/>
-      <c r="Z53" s="53"/>
-      <c r="AA53" s="53"/>
-      <c r="AB53" s="53"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="53"/>
-      <c r="AE53" s="53"/>
-      <c r="AF53" s="53"/>
-      <c r="AG53" s="53"/>
-      <c r="AH53" s="53"/>
-      <c r="AI53" s="53"/>
-      <c r="AJ53" s="53"/>
-      <c r="AK53" s="53"/>
-      <c r="AL53" s="46"/>
-      <c r="AM53" s="46"/>
-      <c r="AN53" s="46"/>
-      <c r="AO53" s="49"/>
-      <c r="AP53" s="52"/>
-      <c r="AQ53" s="52"/>
+      <c r="G53" s="49"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="44"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="44"/>
+      <c r="AM53" s="44"/>
+      <c r="AN53" s="44"/>
+      <c r="AO53" s="47"/>
+      <c r="AP53" s="50"/>
+      <c r="AQ53" s="50"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="40" t="n">
+      <c r="B54" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="42" t="s">
+      <c r="D54" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F54" s="43" t="n">
+      <c r="F54" s="41" t="n">
         <v>12</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="45"/>
-      <c r="X54" s="45"/>
-      <c r="Y54" s="45"/>
-      <c r="Z54" s="45"/>
-      <c r="AA54" s="45"/>
-      <c r="AB54" s="45"/>
-      <c r="AC54" s="48"/>
-      <c r="AD54" s="53"/>
-      <c r="AE54" s="53"/>
-      <c r="AF54" s="53"/>
-      <c r="AG54" s="53"/>
-      <c r="AH54" s="53"/>
-      <c r="AI54" s="53"/>
-      <c r="AJ54" s="53"/>
-      <c r="AK54" s="53"/>
-      <c r="AL54" s="46"/>
-      <c r="AM54" s="46"/>
-      <c r="AN54" s="46"/>
-      <c r="AO54" s="49"/>
-      <c r="AP54" s="52"/>
-      <c r="AQ54" s="52"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="44"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="43"/>
+      <c r="Z54" s="43"/>
+      <c r="AA54" s="43"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="46"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="44"/>
+      <c r="AM54" s="44"/>
+      <c r="AN54" s="44"/>
+      <c r="AO54" s="47"/>
+      <c r="AP54" s="50"/>
+      <c r="AQ54" s="50"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="40" t="n">
+      <c r="B55" s="38" t="n">
         <v>10</v>
       </c>
-      <c r="C55" s="41" t="s">
+      <c r="C55" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D55" s="42" t="s">
+      <c r="D55" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="43" t="s">
+      <c r="E55" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="43" t="n">
+      <c r="F55" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="46"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
-      <c r="Y55" s="53"/>
-      <c r="Z55" s="53"/>
-      <c r="AA55" s="53"/>
-      <c r="AB55" s="53"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="53"/>
-      <c r="AE55" s="53"/>
-      <c r="AF55" s="53"/>
-      <c r="AG55" s="53"/>
-      <c r="AH55" s="53"/>
-      <c r="AI55" s="53"/>
-      <c r="AJ55" s="53"/>
-      <c r="AK55" s="53"/>
-      <c r="AL55" s="46"/>
-      <c r="AM55" s="46"/>
-      <c r="AN55" s="46"/>
-      <c r="AO55" s="49"/>
-      <c r="AP55" s="52"/>
-      <c r="AQ55" s="52"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="44"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="44"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="44"/>
+      <c r="AM55" s="44"/>
+      <c r="AN55" s="44"/>
+      <c r="AO55" s="47"/>
+      <c r="AP55" s="50"/>
+      <c r="AQ55" s="50"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="40" t="n">
+      <c r="B56" s="38" t="n">
         <v>11</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="D56" s="42" t="s">
+      <c r="D56" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="43" t="s">
+      <c r="E56" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="F56" s="43" t="n">
+      <c r="F56" s="41" t="n">
         <v>5</v>
       </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
-      <c r="K56" s="46"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="46"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="46"/>
-      <c r="R56" s="46"/>
-      <c r="S56" s="46"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="45"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="45"/>
-      <c r="X56" s="45"/>
-      <c r="Y56" s="45"/>
-      <c r="Z56" s="45"/>
-      <c r="AA56" s="45"/>
-      <c r="AB56" s="53"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="53"/>
-      <c r="AE56" s="53"/>
-      <c r="AF56" s="53"/>
-      <c r="AG56" s="53"/>
-      <c r="AH56" s="53"/>
-      <c r="AI56" s="53"/>
-      <c r="AJ56" s="53"/>
-      <c r="AK56" s="53"/>
-      <c r="AL56" s="53"/>
-      <c r="AM56" s="53"/>
-      <c r="AN56" s="53"/>
-      <c r="AO56" s="55"/>
-      <c r="AP56" s="56"/>
-      <c r="AQ56" s="52"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="44"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="43"/>
+      <c r="Z56" s="43"/>
+      <c r="AA56" s="43"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="51"/>
+      <c r="AE56" s="51"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
+      <c r="AO56" s="53"/>
+      <c r="AP56" s="54"/>
+      <c r="AQ56" s="50"/>
+    </row>
+    <row r="62" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H62" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K62" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="L62" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="M62" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="N62" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="O62" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="P62" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" s="33" t="n">
+        <v>11</v>
+      </c>
+      <c r="R62" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="S62" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="T62" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="U62" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="V62" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="W62" s="33" t="n">
+        <v>17</v>
+      </c>
+      <c r="X62" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y62" s="33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z62" s="33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA62" s="33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB62" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC62" s="33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD62" s="33" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D63" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" s="58"/>
+      <c r="I63" s="58"/>
+      <c r="J63" s="58"/>
+      <c r="K63" s="58"/>
+      <c r="L63" s="58"/>
+      <c r="M63" s="58"/>
+      <c r="N63" s="59"/>
+      <c r="O63" s="60"/>
+      <c r="P63" s="59"/>
+      <c r="Q63" s="59"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="62"/>
+      <c r="AD63" s="44"/>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G64" s="58"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="58"/>
+      <c r="J64" s="58"/>
+      <c r="K64" s="58"/>
+      <c r="L64" s="58"/>
+      <c r="M64" s="58"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="62"/>
+      <c r="AD64" s="44"/>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="38" t="n">
+        <v>3</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G65" s="58"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="58"/>
+      <c r="J65" s="58"/>
+      <c r="K65" s="58"/>
+      <c r="L65" s="58"/>
+      <c r="M65" s="58"/>
+      <c r="N65" s="66"/>
+      <c r="O65" s="66"/>
+      <c r="P65" s="66"/>
+      <c r="Q65" s="66"/>
+      <c r="R65" s="66"/>
+      <c r="S65" s="66"/>
+      <c r="T65" s="67"/>
+      <c r="U65" s="67"/>
+      <c r="V65" s="66"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="62"/>
+      <c r="AD65" s="44"/>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C66" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="58"/>
+      <c r="L66" s="58"/>
+      <c r="M66" s="58"/>
+      <c r="N66" s="66"/>
+      <c r="O66" s="66"/>
+      <c r="P66" s="66"/>
+      <c r="Q66" s="66"/>
+      <c r="R66" s="66"/>
+      <c r="S66" s="66"/>
+      <c r="T66" s="66"/>
+      <c r="U66" s="66"/>
+      <c r="V66" s="67"/>
+      <c r="W66" s="59"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="62"/>
+      <c r="AD66" s="44"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="38" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="63" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="66"/>
+      <c r="O67" s="66"/>
+      <c r="P67" s="66"/>
+      <c r="Q67" s="66"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="66"/>
+      <c r="T67" s="66"/>
+      <c r="U67" s="66"/>
+      <c r="V67" s="66"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="59"/>
+      <c r="Y67" s="59"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="62"/>
+      <c r="AD67" s="44"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="38" t="n">
+        <v>6</v>
+      </c>
+      <c r="C68" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="65" t="n">
+        <v>2</v>
+      </c>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="66"/>
+      <c r="O68" s="66"/>
+      <c r="P68" s="66"/>
+      <c r="Q68" s="66"/>
+      <c r="R68" s="66"/>
+      <c r="S68" s="66"/>
+      <c r="T68" s="66"/>
+      <c r="U68" s="66"/>
+      <c r="V68" s="66"/>
+      <c r="W68" s="62"/>
+      <c r="X68" s="59"/>
+      <c r="Y68" s="59"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="62"/>
+      <c r="AD68" s="44"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="38" t="n">
+        <v>7</v>
+      </c>
+      <c r="C69" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="65" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="58"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
+      <c r="K69" s="58"/>
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="66"/>
+      <c r="O69" s="66"/>
+      <c r="P69" s="66"/>
+      <c r="Q69" s="66"/>
+      <c r="R69" s="66"/>
+      <c r="S69" s="66"/>
+      <c r="T69" s="66"/>
+      <c r="U69" s="66"/>
+      <c r="V69" s="66"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="59"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="62"/>
+      <c r="AD69" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="B4:E5"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G14:G15"/>
@@ -2673,6 +3017,7 @@
     <mergeCell ref="R29:AC29"/>
     <mergeCell ref="R30:AC30"/>
     <mergeCell ref="R33:AC33"/>
+    <mergeCell ref="G63:M69"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
